--- a/biology/Médecine/Frédéric_de_Wendt/Frédéric_de_Wendt.xlsx
+++ b/biology/Médecine/Frédéric_de_Wendt/Frédéric_de_Wendt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_de_Wendt</t>
+          <t>Frédéric_de_Wendt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric de Wendt (28 septembre 1738 à Sorau – 24 septembre 1818 à Erlangen) est un médecin allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_de_Wendt</t>
+          <t>Frédéric_de_Wendt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie la médecine dans les universités de Halle et de Göttingen, et obtient son doctorat à la dernière institution en 1762. Après avoir obtenu son diplôme, il travaille successivement en tant que médecin dans la ville de Genthin, sert comme un Stadtphysicus dans Pless (haute-Silésie) et est un médecin personnel du prince d'Anhalt. En 1778, il est nommé professeur de médecine à l'université d'Erlangen, où il fonde une clinique de l'institut de la même année[1].
-Dans 1808-09, il publie le journal Annalen des Klinischen Instituts auf der Akademie zu Erlangen[2]. À partir de 1811 à 1818, il fut président de l'Académie allemande des sciences Leopoldina[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie la médecine dans les universités de Halle et de Göttingen, et obtient son doctorat à la dernière institution en 1762. Après avoir obtenu son diplôme, il travaille successivement en tant que médecin dans la ville de Genthin, sert comme un Stadtphysicus dans Pless (haute-Silésie) et est un médecin personnel du prince d'Anhalt. En 1778, il est nommé professeur de médecine à l'université d'Erlangen, où il fonde une clinique de l'institut de la même année.
+Dans 1808-09, il publie le journal Annalen des Klinischen Instituts auf der Akademie zu Erlangen. À partir de 1811 à 1818, il fut président de l'Académie allemande des sciences Leopoldina.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9ric_de_Wendt</t>
+          <t>Frédéric_de_Wendt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>œuvres publiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Historia tracheotomiae nuperrime administratae, 1774.
 De febribus remittentibus semestris hiberni ann. MDCCXCV-XCVI commentatio, 1796.
-Formvlae Medicamentorvm dans Institvto Clinico Erlangensi Vsitatorum, 1807[4].</t>
+Formvlae Medicamentorvm dans Institvto Clinico Erlangensi Vsitatorum, 1807.</t>
         </is>
       </c>
     </row>
